--- a/results/FrequencyTables/26538064_LTR-K.xlsx
+++ b/results/FrequencyTables/26538064_LTR-K.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.00506879073135409</v>
       </c>
       <c r="C2">
-        <v>0.15</v>
+        <v>0.137581462708182</v>
       </c>
       <c r="D2">
-        <v>0.18</v>
+        <v>0.141926140477915</v>
       </c>
       <c r="E2">
-        <v>0.16</v>
+        <v>0.0883417813178856</v>
       </c>
       <c r="F2">
-        <v>0.02</v>
+        <v>0.00724112961622013</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.000724112961622013</v>
       </c>
       <c r="H2">
-        <v>0.97</v>
+        <v>0.86676321506155</v>
       </c>
       <c r="I2">
-        <v>0.02</v>
+        <v>0.00724112961622013</v>
       </c>
       <c r="J2">
-        <v>0.02</v>
+        <v>0.0057929036929761</v>
       </c>
       <c r="K2">
-        <v>0.88</v>
+        <v>0.858073859522085</v>
       </c>
       <c r="L2">
-        <v>0.03</v>
+        <v>0.0137581462708182</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.0246198406951484</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.000724112961622013</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.00868935553946416</v>
       </c>
       <c r="P2">
-        <v>0.9</v>
+        <v>0.807385952208545</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.00434467776973208</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.997827661115134</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.35</v>
+        <v>0.441708906589428</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.0209992758870384</v>
       </c>
       <c r="W2">
-        <v>0.02</v>
+        <v>0.0926864590876177</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.00724112961622013</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.93</v>
+        <v>0.935553946415641</v>
       </c>
       <c r="C3">
-        <v>0.82</v>
+        <v>0.847936278059377</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.0115858073859522</v>
       </c>
       <c r="E3">
-        <v>0.82</v>
+        <v>0.865314989138306</v>
       </c>
       <c r="F3">
-        <v>0.95</v>
+        <v>0.973207820419986</v>
       </c>
       <c r="G3">
-        <v>0.02</v>
+        <v>0.00506879073135409</v>
       </c>
       <c r="H3">
-        <v>0.01</v>
+        <v>0.0159304851556843</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0057929036929761</v>
       </c>
       <c r="J3">
-        <v>0.98</v>
+        <v>0.987690079652426</v>
       </c>
       <c r="K3">
-        <v>0.05</v>
+        <v>0.0608254887762491</v>
       </c>
       <c r="L3">
-        <v>0.01</v>
+        <v>0.0217233888486604</v>
       </c>
       <c r="M3">
-        <v>0.02</v>
+        <v>0.0137581462708182</v>
       </c>
       <c r="N3">
-        <v>0.17</v>
+        <v>0.174511223750905</v>
       </c>
       <c r="O3">
-        <v>0.98</v>
+        <v>0.97827661115134</v>
       </c>
       <c r="P3">
-        <v>0.03</v>
+        <v>0.0130340333091962</v>
       </c>
       <c r="Q3">
-        <v>0.01</v>
+        <v>0.0325850832729906</v>
       </c>
       <c r="R3">
-        <v>0.98</v>
+        <v>0.98913830557567</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.91</v>
+        <v>0.942795076031861</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.0231716147719044</v>
       </c>
       <c r="V3">
-        <v>0.07</v>
+        <v>0.0311368573497466</v>
       </c>
       <c r="W3">
-        <v>0.04</v>
+        <v>0.0188269370021723</v>
       </c>
       <c r="X3">
-        <v>0.05</v>
+        <v>0.0188269370021723</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.05</v>
+        <v>0.0188269370021723</v>
       </c>
       <c r="C4">
-        <v>0.01</v>
+        <v>0.00724112961622013</v>
       </c>
       <c r="D4">
-        <v>0.8</v>
+        <v>0.770456191165822</v>
       </c>
       <c r="E4">
-        <v>0.01</v>
+        <v>0.0376538740043447</v>
       </c>
       <c r="F4">
-        <v>0.01</v>
+        <v>0.0115858073859522</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0057929036929761</v>
       </c>
       <c r="H4">
-        <v>0.02</v>
+        <v>0.11151339608979</v>
       </c>
       <c r="I4">
-        <v>0.98</v>
+        <v>0.986241853729182</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.000724112961622013</v>
       </c>
       <c r="K4">
-        <v>0.06</v>
+        <v>0.0709630702389573</v>
       </c>
       <c r="L4">
-        <v>0.02</v>
+        <v>0.0115858073859522</v>
       </c>
       <c r="M4">
-        <v>0.01</v>
+        <v>0.0101375814627082</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.0057929036929761</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.00651701665459812</v>
       </c>
       <c r="P4">
-        <v>0.07</v>
+        <v>0.178131788559015</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.0173787110789283</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.00217233888486604</v>
       </c>
       <c r="T4">
-        <v>0.03</v>
+        <v>0.0173787110789283</v>
       </c>
       <c r="U4">
-        <v>0.65</v>
+        <v>0.529326574945692</v>
       </c>
       <c r="V4">
-        <v>0.01</v>
+        <v>0.0209992758870384</v>
       </c>
       <c r="W4">
-        <v>0.94</v>
+        <v>0.882693700217234</v>
       </c>
       <c r="X4">
-        <v>0.95</v>
+        <v>0.973207820419986</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,70 +687,70 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.02</v>
+        <v>0.0405503258508327</v>
       </c>
       <c r="C5">
-        <v>0.02</v>
+        <v>0.00724112961622013</v>
       </c>
       <c r="D5">
-        <v>0.02</v>
+        <v>0.0745836350470673</v>
       </c>
       <c r="E5">
-        <v>0.01</v>
+        <v>0.00868935553946416</v>
       </c>
       <c r="F5">
-        <v>0.02</v>
+        <v>0.00796524257784214</v>
       </c>
       <c r="G5">
-        <v>0.98</v>
+        <v>0.988414192614048</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00506879073135409</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.000724112961622013</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.00506879073135409</v>
       </c>
       <c r="K5">
-        <v>0.01</v>
+        <v>0.0101375814627082</v>
       </c>
       <c r="L5">
-        <v>0.94</v>
+        <v>0.952932657494569</v>
       </c>
       <c r="M5">
-        <v>0.97</v>
+        <v>0.951484431571325</v>
       </c>
       <c r="N5">
-        <v>0.83</v>
+        <v>0.818247646632875</v>
       </c>
       <c r="O5">
-        <v>0.02</v>
+        <v>0.00651701665459812</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.00144822592324403</v>
       </c>
       <c r="Q5">
-        <v>0.99</v>
+        <v>0.945691527878349</v>
       </c>
       <c r="R5">
-        <v>0.02</v>
+        <v>0.0108616944243302</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.06</v>
+        <v>0.0398262128892107</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.00506879073135409</v>
       </c>
       <c r="V5">
-        <v>0.92</v>
+        <v>0.926864590876177</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.0057929036929761</v>
       </c>
       <c r="X5">
         <v>0</v>
